--- a/compared/compare_results_restrictius.xlsx
+++ b/compared/compare_results_restrictius.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>d2006</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -510,11 +510,11 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>ATATATATAT</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -522,14 +522,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>d2006</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>9033</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -570,75 +570,75 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>d2006</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>9033</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>9033</v>
+        <v>3576</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.833333333333333</v>
+        <v>2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>9033</v>
+        <v>3576</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>9033</v>
+        <v>3576</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -654,15 +654,15 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATATATATAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>9033</v>
+        <v>3576</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -678,15 +678,15 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATATATATAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>9033</v>
+        <v>2616</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -702,47 +702,47 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3576</v>
+        <v>2616</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>d2006</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3576</v>
+        <v>2616</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -750,23 +750,23 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3576</v>
+        <v>2616</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -774,47 +774,47 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3576</v>
+        <v>2616</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3576</v>
+        <v>1691</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -822,71 +822,71 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2616</v>
+        <v>1691</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>TATAATATAT</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2616</v>
+        <v>1691</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>TATAATATAT</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>d2006</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2616</v>
+        <v>1691</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -894,15 +894,15 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2616</v>
+        <v>1691</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -918,23 +918,23 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>d2006</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2616</v>
+        <v>1301</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -942,15 +942,15 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2616</v>
+        <v>1301</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -966,143 +966,143 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2616</v>
+        <v>1301</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2616</v>
+        <v>1301</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>TAATAATAAT</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1691</v>
+        <v>601</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1691</v>
+        <v>601</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TATAATATAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1691</v>
+        <v>601</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TATAATATAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1691</v>
+        <v>174</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -1110,119 +1110,119 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>d2006</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1691</v>
+        <v>174</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1301</v>
+        <v>174</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1301</v>
+        <v>174</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1301</v>
+        <v>174</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1301</v>
+        <v>78</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1230,39 +1230,39 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>d2006</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1301</v>
+        <v>78</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1301</v>
+        <v>78</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1278,15 +1278,15 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TAATAATAAT</t>
+          <t>ATATATATAT</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>601</v>
+        <v>78</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -1302,63 +1302,63 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ATAAATTAAT</t>
+          <t>AATAATTAAT</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>601</v>
+        <v>72</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>601</v>
+        <v>72</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>408</v>
+        <v>72</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -1374,47 +1374,47 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>d2006</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>408</v>
+        <v>72</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>8.5</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>408</v>
+        <v>52</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
@@ -1422,11 +1422,11 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1434,27 +1434,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>d2006</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>408</v>
+        <v>44</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AATAATTAAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1478,39 +1478,39 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4.833333333333333</v>
+        <v>1</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -1518,11 +1518,11 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1534,7 +1534,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -1542,71 +1542,71 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>d2006</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>TATAATTAAT</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>ATATTATAAT</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>d2006</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -1614,23 +1614,23 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>ATAAATTAAT</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -1638,23 +1638,23 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -1662,47 +1662,47 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>TATAATAAAT</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
@@ -1710,11 +1710,11 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1722,35 +1722,35 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.833333333333333</v>
+        <v>1</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
@@ -1758,23 +1758,23 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>d2006</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
@@ -1782,11 +1782,11 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TAAAAAATAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1794,11 +1794,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -1806,15 +1806,15 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -1830,23 +1830,23 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>d2006</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
@@ -1854,11 +1854,11 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1866,47 +1866,47 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>d2006</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -1926,23 +1926,23 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ATATTATAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F63" t="n">
         <v>1</v>
@@ -1950,39 +1950,39 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TATAATTAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -1998,15 +1998,15 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -2022,35 +2022,35 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ATTAATAAAT</t>
+          <t>ATTAAAATAT</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2058,11 +2058,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2070,83 +2070,83 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TATAATAAAT</t>
+          <t>ATTAATAAAT</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -2154,35 +2154,35 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TAATTAATAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
@@ -2190,59 +2190,59 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>TAATTATAAT</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>d2006</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -2254,7 +2254,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -2262,11 +2262,11 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -2274,71 +2274,71 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>d2006</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2346,11 +2346,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -2358,23 +2358,23 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>d2006</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
@@ -2382,26 +2382,26 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>d2006</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2414,27 +2414,27 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>d2006</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2442,11 +2442,11 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -2454,23 +2454,23 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -2478,23 +2478,23 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TAATATTAAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
@@ -2502,15 +2502,15 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3.333333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
@@ -2526,26 +2526,26 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TAATATTAAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>TAATATTAAT</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2562,71 +2562,71 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>ATTAATTAAT</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -2634,23 +2634,23 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>TAATATTAAT</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -2658,23 +2658,23 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ATTAAAATAT</t>
+          <t>TAATTAATAT</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -2682,35 +2682,35 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TAATTATAAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>d2006</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>1</v>
@@ -2718,23 +2718,23 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ATTAATTAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>d2006</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>1</v>
@@ -2742,23 +2742,23 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -2766,23 +2766,23 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>d2006</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>1</v>
@@ -2790,39 +2790,39 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ATAAAATAAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -2838,11 +2838,11 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -2850,11 +2850,11 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -2862,35 +2862,35 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -2910,39 +2910,39 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>AAAAAATAAT</t>
+          <t>AATAAAATAT</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -2958,15 +2958,15 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2982,11 +2982,11 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>ATAAAATAAT</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -3006,15 +3006,15 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3030,11 +3030,11 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -3054,11 +3054,11 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -3078,11 +3078,11 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>AATAAAATAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -3102,35 +3102,35 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>TAAAAAATAT</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>AAAAATTAAT</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -3150,19 +3150,19 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>AAAAAAAAAT</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -3174,19 +3174,19 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AAAAAATAAT</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -3198,19 +3198,19 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>TAAAAAAAAT</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -3222,15 +3222,15 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>AAAAAAAAAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3246,83 +3246,83 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>AAAAATTAAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -3342,43 +3342,43 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TAAAAAAAAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -3390,7 +3390,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -3414,107 +3414,107 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>3</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E126" t="n">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -3522,14 +3522,14 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>d2006</t>
         </is>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/compared/compare_results_restrictius.xlsx
+++ b/compared/compare_results_restrictius.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9033</v>
+        <v>20091</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -486,39 +486,39 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATATATATAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9033</v>
+        <v>20091</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATATATATAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>9033</v>
+        <v>20091</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -542,18 +542,18 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>9033</v>
+        <v>20091</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -570,11 +570,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>d2006</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>9033</v>
+        <v>20091</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -582,23 +582,23 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>ATATATATAT</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3576</v>
+        <v>20091</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -606,35 +606,35 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>ATATATATAT</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3576</v>
+        <v>20091</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3576</v>
+        <v>8014</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -662,15 +662,15 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3576</v>
+        <v>8014</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -678,47 +678,47 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2616</v>
+        <v>8014</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.833333333333333</v>
+        <v>2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2616</v>
+        <v>8014</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -726,11 +726,11 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -738,23 +738,23 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>d2006</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2616</v>
+        <v>5645</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -762,14 +762,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2616</v>
+        <v>5645</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -786,27 +786,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2616</v>
+        <v>5645</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4.833333333333333</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1691</v>
+        <v>5645</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -822,15 +822,15 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1691</v>
+        <v>5645</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -846,55 +846,55 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TATAATATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1691</v>
+        <v>5645</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TATAATATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>8.5</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1691</v>
+        <v>5645</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -906,11 +906,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1691</v>
+        <v>3888</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -918,11 +918,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -930,83 +930,83 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1301</v>
+        <v>3888</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>TATAATATAT</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1301</v>
+        <v>3888</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1301</v>
+        <v>3888</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>TATAATATAT</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1301</v>
+        <v>3888</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -1014,35 +1014,35 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TAATAATAAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>601</v>
+        <v>3125</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1050,27 +1050,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>601</v>
+        <v>3125</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>601</v>
+        <v>3125</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1086,15 +1086,15 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.833333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>174</v>
+        <v>3125</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -1110,23 +1110,23 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>TAATAATAAT</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>d2006</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>174</v>
+        <v>1581</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -1134,15 +1134,15 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>174</v>
+        <v>1581</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1166,15 +1166,15 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>174</v>
+        <v>1581</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -1182,15 +1182,15 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>174</v>
+        <v>1581</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1206,15 +1206,15 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>78</v>
+        <v>1489</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1230,35 +1230,35 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>d2006</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>78</v>
+        <v>1489</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1266,11 +1266,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>78</v>
+        <v>886</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1278,15 +1278,15 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ATATATATAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>78</v>
+        <v>886</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -1302,23 +1302,23 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AATAATTAAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>72</v>
+        <v>886</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -1326,31 +1326,31 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>72</v>
+        <v>886</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>72</v>
+        <v>423</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -1374,11 +1374,11 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>72</v>
+        <v>423</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1398,15 +1398,15 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>52</v>
+        <v>423</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1434,14 +1434,14 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>d2006</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1458,23 +1458,23 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -1494,11 +1494,11 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -1518,71 +1518,71 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TATAATTAAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
@@ -1590,23 +1590,23 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ATATTATAAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -1614,35 +1614,35 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ATAAATTAAT</t>
+          <t>AATAATTAAT</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -1662,31 +1662,31 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TATAATAAAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
@@ -1710,11 +1710,11 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1722,19 +1722,19 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1746,123 +1746,123 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>d2006</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>TATAATAAAT</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>TATAATTAAT</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -1878,11 +1878,11 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>ATATTATAAT</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1890,11 +1890,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>d2006</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
@@ -1902,15 +1902,15 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -1926,83 +1926,83 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -2022,35 +2022,35 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ATTAAAATAT</t>
+          <t>TAATTAATAT</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2058,19 +2058,19 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -2094,23 +2094,23 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2118,35 +2118,35 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>TAATTATAAT</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -2154,51 +2154,51 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TAATTATAAT</t>
+          <t>TAATATTAAT</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
@@ -2214,11 +2214,11 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>TAATATTAAT</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -2226,23 +2226,23 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>ATTAAAATAT</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -2254,7 +2254,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -2262,11 +2262,11 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -2274,23 +2274,23 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>d2006</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2298,11 +2298,11 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -2310,23 +2310,23 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>ATAAATTAAT</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -2334,11 +2334,11 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -2358,23 +2358,23 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>d2006</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
@@ -2382,15 +2382,15 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -2406,35 +2406,35 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2466,11 +2466,11 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
@@ -2502,23 +2502,23 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>ATTAATTAAT</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
@@ -2526,15 +2526,15 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>AAAAAAAAAT</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -2550,11 +2550,11 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TAATATTAAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2562,107 +2562,107 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ATTAATTAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TAATATTAAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
         <v>1</v>
@@ -2670,59 +2670,59 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TAATTAATAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>ATAAAATAAT</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>d2006</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AATAAAATAT</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -2730,23 +2730,23 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>d2006</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -2766,63 +2766,63 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>TAAAAAATAT</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>o1992b</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2838,15 +2838,15 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2862,15 +2862,15 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2886,15 +2886,15 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>TAAAAAAAAT</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2910,15 +2910,15 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>AAAAAATAAT</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2934,11 +2934,11 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>AATAAAATAT</t>
+          <t>AAAAATTAAT</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -2958,11 +2958,11 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -2982,11 +2982,11 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ATAAAATAAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -3006,7 +3006,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -3030,11 +3030,11 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -3054,43 +3054,43 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>AAAAAAAAAT</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -3102,11 +3102,11 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TAAAAAATAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -3126,11 +3126,11 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>AAAAATTAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -3150,26 +3150,26 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>AAAAAAAAAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E114" t="n">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>AAAAAATAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -3186,349 +3186,61 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TAAAAAAAAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1992b</t>
         </is>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>ATAAAAATAT</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>2</v>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>o1988</t>
-        </is>
-      </c>
-      <c r="E118" t="n">
-        <v>0</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>AAATTAATAT</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>2</v>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>o1988</t>
-        </is>
-      </c>
-      <c r="E119" t="n">
-        <v>0</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>AAAAATAAAT</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>3</v>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>o1988</t>
-        </is>
-      </c>
-      <c r="E120" t="n">
-        <v>0</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>AAAATAATAT</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>3</v>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>o1988</t>
-        </is>
-      </c>
-      <c r="E121" t="n">
-        <v>0</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>AAATAAAAAT</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>3</v>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>o1988</t>
-        </is>
-      </c>
-      <c r="E122" t="n">
-        <v>0</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>ATAAAAAAAT</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>3</v>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>o1988</t>
-        </is>
-      </c>
-      <c r="E123" t="n">
-        <v>0</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>AAAAAAAAAT</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>4</v>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>o1988</t>
-        </is>
-      </c>
-      <c r="E124" t="n">
-        <v>0</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>AAATATAAAT</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>o1992b</t>
-        </is>
-      </c>
-      <c r="E125" t="n">
-        <v>0</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>AAATAAAAAT</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>4</v>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>o1992b</t>
-        </is>
-      </c>
-      <c r="E126" t="n">
-        <v>0</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>AAAAATATAT</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>o1992b</t>
-        </is>
-      </c>
-      <c r="E127" t="n">
-        <v>0</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>AAAAATAAAT</t>
-        </is>
-      </c>
-      <c r="C128" t="n">
-        <v>5</v>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>o1992b</t>
-        </is>
-      </c>
-      <c r="E128" t="n">
-        <v>0</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>AAAAATAAAT</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
-        <v>3</v>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>d2006</t>
-        </is>
-      </c>
-      <c r="E129" t="n">
-        <v>0</v>
-      </c>
-      <c r="F129" t="n">
         <v>1</v>
       </c>
     </row>
